--- a/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
